--- a/Odds-Data/Odds-Data-Clean/2019-20.xlsx
+++ b/Odds-Data/Odds-Data-Clean/2019-20.xlsx
@@ -38080,7 +38080,7 @@
         <v>218.5</v>
       </c>
       <c r="F1141">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="G1141" t="s">
         <v>320</v>
